--- a/data/VADER_statistics.xlsx
+++ b/data/VADER_statistics.xlsx
@@ -1880,10 +1880,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.6912563218047906</v>
+        <v>0.8510055012073143</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6803230308830001</v>
+        <v>0.845827140992962</v>
       </c>
     </row>
     <row r="100">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.1051197161808743</v>
+        <v>0.09995138295669577</v>
       </c>
       <c r="D100" t="n">
-        <v>0.1236021807855809</v>
+        <v>0.1053055688925214</v>
       </c>
     </row>
     <row r="101">
@@ -1908,10 +1908,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.2888888889</v>
+        <v>0.3</v>
       </c>
       <c r="D101" t="n">
-        <v>0.2113693467</v>
+        <v>0.3333333333</v>
       </c>
     </row>
     <row r="102">
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.62</v>
+        <v>0.7884615385</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5952380952</v>
+        <v>0.7777777778</v>
       </c>
     </row>
     <row r="103">
@@ -1936,10 +1936,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.6944444444</v>
+        <v>0.8571428571</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6829268293</v>
+        <v>0.8571428571</v>
       </c>
     </row>
     <row r="104">
@@ -1950,10 +1950,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.7647058824</v>
+        <v>0.9230769231</v>
       </c>
       <c r="D104" t="n">
-        <v>0.7719298246</v>
+        <v>0.9230769231</v>
       </c>
     </row>
     <row r="105">
@@ -1973,7 +1973,7 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>sentiment_score</t>
+          <t>Sentiment_score</t>
         </is>
       </c>
       <c r="B106" s="1" t="inlineStr">
@@ -2089,7 +2089,7 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>positive_score</t>
+          <t>Positive_score</t>
         </is>
       </c>
       <c r="B114" s="1" t="inlineStr">
@@ -2205,7 +2205,7 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>negative_score</t>
+          <t>Negative_score</t>
         </is>
       </c>
       <c r="B122" s="1" t="inlineStr">
@@ -2321,7 +2321,7 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>neutral_score</t>
+          <t>Neutral_score</t>
         </is>
       </c>
       <c r="B130" s="1" t="inlineStr">
@@ -2437,7 +2437,7 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>positive_words</t>
+          <t>Positive_words</t>
         </is>
       </c>
       <c r="B138" s="1" t="inlineStr">
@@ -2553,7 +2553,7 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>negative_words</t>
+          <t>Negative_words</t>
         </is>
       </c>
       <c r="B146" s="1" t="inlineStr">
@@ -2669,7 +2669,7 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>neutral_words</t>
+          <t>Neutral_words</t>
         </is>
       </c>
       <c r="B154" s="1" t="inlineStr">
@@ -2785,7 +2785,7 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>polarity_shifters</t>
+          <t>Polarity_shifters</t>
         </is>
       </c>
       <c r="B162" s="1" t="inlineStr">
@@ -2808,10 +2808,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.5077142857142857</v>
+        <v>0.07828571428571429</v>
       </c>
       <c r="D163" t="n">
-        <v>0.7995238095238095</v>
+        <v>0.1175238095238095</v>
       </c>
     </row>
     <row r="164">
@@ -2822,10 +2822,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.8596297157500252</v>
+        <v>0.3010679063950026</v>
       </c>
       <c r="D164" t="n">
-        <v>1.263351313187394</v>
+        <v>0.3926866946814309</v>
       </c>
     </row>
     <row r="165">
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -2892,16 +2892,16 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D169" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>intensity_modifiers</t>
+          <t>Intensity_modifiers</t>
         </is>
       </c>
       <c r="B170" s="1" t="inlineStr">
@@ -2924,10 +2924,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1.694285714285714</v>
+        <v>0.6493333333333333</v>
       </c>
       <c r="D171" t="n">
-        <v>1.844666666666667</v>
+        <v>0.7082857142857143</v>
       </c>
     </row>
     <row r="172">
@@ -2938,10 +2938,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>1.777687564705261</v>
+        <v>0.9781324321860528</v>
       </c>
       <c r="D172" t="n">
-        <v>2.539105549116564</v>
+        <v>1.296190728663316</v>
       </c>
     </row>
     <row r="173">
@@ -2980,10 +2980,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -2994,10 +2994,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -3008,16 +3008,16 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D177" t="n">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>negations</t>
+          <t>Negations</t>
         </is>
       </c>
       <c r="B178" s="1" t="inlineStr">
@@ -3040,10 +3040,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1.004857142857143</v>
+        <v>0.1299047619047619</v>
       </c>
       <c r="D179" t="n">
-        <v>1.34752380952381</v>
+        <v>0.1733333333333333</v>
       </c>
     </row>
     <row r="180">
@@ -3054,10 +3054,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1.417535140795272</v>
+        <v>0.3986846055260478</v>
       </c>
       <c r="D180" t="n">
-        <v>1.968193743019912</v>
+        <v>0.5071667849534937</v>
       </c>
     </row>
     <row r="181">
@@ -3096,10 +3096,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -3110,10 +3110,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -3124,16 +3124,16 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D185" t="n">
-        <v>49</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>emoticons</t>
+          <t>Emoticons</t>
         </is>
       </c>
       <c r="B186" s="1" t="inlineStr">
